--- a/spearheads.xlsx
+++ b/spearheads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manueltristan\Documents\spearheads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A82BC-27DD-4214-8635-F7B0F3909D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85491B-0531-4E17-8723-B0061372B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/spearheads.xlsx
+++ b/spearheads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manueltristan\Documents\spearheads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85491B-0531-4E17-8723-B0061372B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ADD8D4-979E-485C-B316-460F16C3A948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
